--- a/biology/Zoologie/Hydridae/Hydridae.xlsx
+++ b/biology/Zoologie/Hydridae/Hydridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hydridae est une famille d'animaux de l'embranchement des cnidaires (les cnidaires sont des animaux relativement simples, spécifiques du milieu aquatique ; on y retrouve, entre autres, les coraux, les anémones de mer et les méduses).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 févr. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 févr. 2011) :
 genre Hydra Linnaeus, 1758
 Hydra canadensis
 Hydra carnea
@@ -531,9 +545,9 @@
 Hydra viridissima
 Hydra vulgaris
 Hydra zhujiangensis
-Selon World Register of Marine Species                               (26 févr. 2011)[2] :
+Selon World Register of Marine Species                               (26 févr. 2011) :
 genre Hydra Linnaeus, 1758
-Selon ITIS      (26 févr. 2011)[3] :
+Selon ITIS      (26 févr. 2011) :
 genre Chlorohydra Schulze, 1917
 Chlorohydra viridissima l'Hydre verte qui doit sa couleur à la présence, dans les cellules, d'algues unicellulaires symbiotiques, transmissibles d'une génération à l'autre par l'œuf
 genre Hydra Linnaeus, 1758</t>
